--- a/data/metadata/Informe-01-010022-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010022-A-TC-TM-TP.xlsx
@@ -112,9 +112,6 @@
     <t>iaest-measure:1950-1959</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
   </si>
   <si>
     <t>URI-Provincia</t>
@@ -326,39 +326,39 @@
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
@@ -367,63 +367,63 @@
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -432,25 +432,25 @@
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>40</v>
@@ -459,13 +459,13 @@
         <v>41</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>42</v>

--- a/data/metadata/Informe-01-010022-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010022-A-TC-TM-TP.xlsx
@@ -11,147 +11,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+  <si>
+    <t>Sin definir</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>2010 y posterior</t>
   </si>
   <si>
     <t>1980-1989</t>
   </si>
   <si>
-    <t>fuente-y-fecha</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>2010-y-posterior</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Antes de 1950</t>
   </si>
   <si>
     <t>2000-2009</t>
   </si>
   <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
     <t>1990-1999</t>
   </si>
   <si>
-    <t>municipio-codigo</t>
+    <t>Municipio nombre</t>
   </si>
   <si>
     <t>1960-1969</t>
   </si>
   <si>
-    <t>sin-definir</t>
-  </si>
-  <si>
-    <t>antes-de-1950</t>
+    <t>Total edificios</t>
+  </si>
+  <si>
+    <t>Catastro (diciembre de ' ||  CAST (Año AS CHARACTER ( 30 )) || ')'</t>
   </si>
   <si>
     <t>1950-1959</t>
   </si>
   <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>catastro-diciembre-de----cast-ano-as-character--30---</t>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Fuente y fecha</t>
   </si>
   <si>
     <t>1970-1979</t>
   </si>
   <si>
-    <t>total-edificios</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:sin-definir</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:2010-y-posterior</t>
+  </si>
+  <si>
+    <t>iaest-measure:1980-1989</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:antes-de-1950</t>
+  </si>
+  <si>
+    <t>iaest-measure:2000-2009</t>
+  </si>
+  <si>
+    <t>iaest-measure:1990-1999</t>
+  </si>
+  <si>
+    <t>iaest-measure:1960-1969</t>
+  </si>
+  <si>
+    <t>iaest-measure:total-edificios</t>
+  </si>
+  <si>
+    <t>iaest-dimension:catastro-diciembre-de----cast-ano-as-character--30---</t>
+  </si>
+  <si>
+    <t>iaest-measure:1950-1959</t>
+  </si>
+  <si>
+    <t>iaest-dimension:fuente-y-fecha</t>
+  </si>
+  <si>
+    <t>iaest-measure:1970-1979</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:1980-1989</t>
-  </si>
-  <si>
-    <t>iaest-dimension:fuente-y-fecha</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:2010-y-posterior</t>
-  </si>
-  <si>
-    <t>iaest-measure:2000-2009</t>
-  </si>
-  <si>
-    <t>iaest-measure:1990-1999</t>
-  </si>
-  <si>
-    <t>iaest-measure:1960-1969</t>
-  </si>
-  <si>
-    <t>iaest-measure:sin-definir</t>
-  </si>
-  <si>
-    <t>iaest-measure:antes-de-1950</t>
-  </si>
-  <si>
-    <t>iaest-measure:1950-1959</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:1970-1979</t>
-  </si>
-  <si>
-    <t>iaest-measure:total-edificios</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
   </si>
   <si>
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>mapping-catastro-diciembre-de----cast-ano-as-character--30---.xlsx</t>
+  </si>
+  <si>
+    <t>mapping-fuente-y-fecha.xlsx</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-fuente-y-fecha.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-catastro-diciembre-de----cast-ano-as-character--30---.xlsx</t>
   </si>
 </sst>
 </file>
@@ -296,49 +299,49 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -346,10 +349,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -358,52 +361,52 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -411,10 +414,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>38</v>
@@ -423,66 +426,63 @@
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010022-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010022-A-TC-TM-TP.xlsx
@@ -208,17 +208,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,22 +233,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="15" max="15" width="28.71"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
